--- a/data/new_data/leaf_n.xlsx
+++ b/data/new_data/leaf_n.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\OneDrive - UDEP\ForChange\data\new_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udepoffice365ms-my.sharepoint.com/personal/pablo_salazar_udep_edu_pe/Documents/ForChange/data/new_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_25A77E9D8B7078606F240E6DCB10860161D4B4BC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDF022C8-CF45-4DB0-8963-E6EBAB3F2943}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6150" windowHeight="7460"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Resumidos Digestiones" sheetId="3" r:id="rId1"/>
     <sheet name="Datos Brutos Digestiones" sheetId="1" r:id="rId2"/>
     <sheet name="Rectas Calibrado K_Na" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,26 +36,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={437B9BFC-4FB8-49C4-A20D-B67F03235388}</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Medi los patrones al final de las mediciones de las muestras</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -252,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,7 +478,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -524,7 +517,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -620,7 +613,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -680,7 +673,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DB76-4488-9E39-2BE7FEBC60A1}"/>
             </c:ext>
@@ -752,7 +745,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="357629264"/>
@@ -814,7 +807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="357626128"/>
@@ -855,7 +848,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -867,7 +860,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -906,7 +899,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1002,7 +995,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1062,7 +1055,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD0A-4F38-BEBD-E2B7E2A2E69D}"/>
             </c:ext>
@@ -1134,7 +1127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="357631224"/>
@@ -1196,7 +1189,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="357630440"/>
@@ -1237,7 +1230,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1249,7 +1242,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1288,7 +1281,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1378,7 +1371,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1438,7 +1431,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-497E-4CFF-85E6-223BD60141C2}"/>
             </c:ext>
@@ -1510,7 +1503,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="357631616"/>
@@ -1572,7 +1565,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="357624952"/>
@@ -1613,7 +1606,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1625,7 +1618,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1664,7 +1657,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1760,7 +1753,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1820,7 +1813,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F682-4380-AFA1-9C9AE8F61DBA}"/>
             </c:ext>
@@ -1892,7 +1885,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="357627696"/>
@@ -1954,7 +1947,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="357632008"/>
@@ -1995,7 +1988,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2007,7 +2000,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2046,7 +2039,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2136,7 +2129,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2196,7 +2189,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9715-41B2-A869-AE34FB155BF1}"/>
             </c:ext>
@@ -2268,7 +2261,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="448217856"/>
@@ -2330,7 +2323,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="448223344"/>
@@ -2371,7 +2364,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5182,7 +5175,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CD1800D-0D6C-407A-94F5-6321FD2B0280}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD1800D-0D6C-407A-94F5-6321FD2B0280}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5218,7 +5211,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBCE1BB4-CDF1-4AC0-BC43-D4970B192103}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCE1BB4-CDF1-4AC0-BC43-D4970B192103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5254,7 +5247,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B73EEF1C-923D-4D03-A146-142A9BECA061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73EEF1C-923D-4D03-A146-142A9BECA061}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5290,7 +5283,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF8A8175-5797-4BF1-9C75-60ACD32A053B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8A8175-5797-4BF1-9C75-60ACD32A053B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5326,7 +5319,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E244E188-94D7-4C60-BDCC-D01A65B630D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E244E188-94D7-4C60-BDCC-D01A65B630D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5657,29 +5650,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" customWidth="1"/>
-    <col min="12" max="12" width="8.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.453125"/>
-    <col min="14" max="14" width="8.54296875" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -5721,7 +5714,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>490299</v>
       </c>
@@ -5763,7 +5756,7 @@
       </c>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>490299</v>
       </c>
@@ -5805,7 +5798,7 @@
       </c>
       <c r="N3" s="23"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>490299</v>
       </c>
@@ -5847,7 +5840,7 @@
       </c>
       <c r="N4" s="23"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>490299</v>
       </c>
@@ -5889,7 +5882,7 @@
       </c>
       <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>490299</v>
       </c>
@@ -5931,7 +5924,7 @@
       </c>
       <c r="N6" s="23"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>490813</v>
       </c>
@@ -5973,7 +5966,7 @@
       </c>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>490813</v>
       </c>
@@ -6015,7 +6008,7 @@
       </c>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>490813</v>
       </c>
@@ -6057,7 +6050,7 @@
       </c>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>490813</v>
       </c>
@@ -6099,7 +6092,7 @@
       </c>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>490813</v>
       </c>
@@ -6141,7 +6134,7 @@
       </c>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>490125</v>
       </c>
@@ -6183,7 +6176,7 @@
       </c>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>490125</v>
       </c>
@@ -6225,7 +6218,7 @@
       </c>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>490125</v>
       </c>
@@ -6267,7 +6260,7 @@
       </c>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>490125</v>
       </c>
@@ -6309,7 +6302,7 @@
       </c>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>490125</v>
       </c>
@@ -6351,7 +6344,7 @@
       </c>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>490300</v>
       </c>
@@ -6393,7 +6386,7 @@
       </c>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>490300</v>
       </c>
@@ -6435,7 +6428,7 @@
       </c>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>490300</v>
       </c>
@@ -6477,7 +6470,7 @@
       </c>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>490300</v>
       </c>
@@ -6519,7 +6512,7 @@
       </c>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>490300</v>
       </c>
@@ -6561,7 +6554,7 @@
       </c>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>490525</v>
       </c>
@@ -6603,7 +6596,7 @@
       </c>
       <c r="N22" s="23"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>490525</v>
       </c>
@@ -6645,7 +6638,7 @@
       </c>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>490525</v>
       </c>
@@ -6687,7 +6680,7 @@
       </c>
       <c r="N24" s="23"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>490525</v>
       </c>
@@ -6729,7 +6722,7 @@
       </c>
       <c r="N25" s="23"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>490525</v>
       </c>
@@ -6771,7 +6764,7 @@
       </c>
       <c r="N26" s="23"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>450176</v>
       </c>
@@ -6813,7 +6806,7 @@
       </c>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>450176</v>
       </c>
@@ -6855,7 +6848,7 @@
       </c>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>450176</v>
       </c>
@@ -6897,7 +6890,7 @@
       </c>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>450176</v>
       </c>
@@ -6939,7 +6932,7 @@
       </c>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>450176</v>
       </c>
@@ -6981,7 +6974,7 @@
       </c>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>450101</v>
       </c>
@@ -7023,7 +7016,7 @@
       </c>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>450101</v>
       </c>
@@ -7065,7 +7058,7 @@
       </c>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>450101</v>
       </c>
@@ -7107,7 +7100,7 @@
       </c>
       <c r="N34" s="12"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>450101</v>
       </c>
@@ -7149,7 +7142,7 @@
       </c>
       <c r="N35" s="12"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>450101</v>
       </c>
@@ -7191,7 +7184,7 @@
       </c>
       <c r="N36" s="12"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>450265</v>
       </c>
@@ -7233,7 +7226,7 @@
       </c>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>450265</v>
       </c>
@@ -7275,7 +7268,7 @@
       </c>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>450265</v>
       </c>
@@ -7317,7 +7310,7 @@
       </c>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>450265</v>
       </c>
@@ -7359,7 +7352,7 @@
       </c>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>450265</v>
       </c>
@@ -7397,11 +7390,11 @@
         <v>157.63546798029554</v>
       </c>
       <c r="M41" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>451383</v>
       </c>
@@ -7443,7 +7436,7 @@
       </c>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>451383</v>
       </c>
@@ -7485,7 +7478,7 @@
       </c>
       <c r="N43" s="12"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>451383</v>
       </c>
@@ -7527,7 +7520,7 @@
       </c>
       <c r="N44" s="12"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>451383</v>
       </c>
@@ -7569,7 +7562,7 @@
       </c>
       <c r="N45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>451383</v>
       </c>
@@ -7611,7 +7604,7 @@
       </c>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>450203</v>
       </c>
@@ -7653,7 +7646,7 @@
       </c>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>450203</v>
       </c>
@@ -7695,7 +7688,7 @@
       </c>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>450203</v>
       </c>
@@ -7737,7 +7730,7 @@
       </c>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>450203</v>
       </c>
@@ -7779,7 +7772,7 @@
       </c>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>110397</v>
       </c>
@@ -7821,7 +7814,7 @@
       </c>
       <c r="N51" s="13"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>110397</v>
       </c>
@@ -7863,7 +7856,7 @@
       </c>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>110397</v>
       </c>
@@ -7905,7 +7898,7 @@
       </c>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>110397</v>
       </c>
@@ -7947,7 +7940,7 @@
       </c>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>110397</v>
       </c>
@@ -7989,7 +7982,7 @@
       </c>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>110085</v>
       </c>
@@ -8031,7 +8024,7 @@
       </c>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>110085</v>
       </c>
@@ -8073,7 +8066,7 @@
       </c>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>110085</v>
       </c>
@@ -8115,7 +8108,7 @@
       </c>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>110085</v>
       </c>
@@ -8157,7 +8150,7 @@
       </c>
       <c r="N59" s="7"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>110085</v>
       </c>
@@ -8199,7 +8192,7 @@
       </c>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>110158</v>
       </c>
@@ -8241,7 +8234,7 @@
       </c>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>110158</v>
       </c>
@@ -8283,7 +8276,7 @@
       </c>
       <c r="N62" s="13"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>110158</v>
       </c>
@@ -8325,7 +8318,7 @@
       </c>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>110158</v>
       </c>
@@ -8367,7 +8360,7 @@
       </c>
       <c r="N64" s="13"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>110160</v>
       </c>
@@ -8409,7 +8402,7 @@
       </c>
       <c r="N65" s="7"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>110160</v>
       </c>
@@ -8451,7 +8444,7 @@
       </c>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>110160</v>
       </c>
@@ -8493,7 +8486,7 @@
       </c>
       <c r="N67" s="7"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>110160</v>
       </c>
@@ -8535,7 +8528,7 @@
       </c>
       <c r="N68" s="7"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>110160</v>
       </c>
@@ -8577,7 +8570,7 @@
       </c>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>110094</v>
       </c>
@@ -8619,7 +8612,7 @@
       </c>
       <c r="N70" s="32"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>110094</v>
       </c>
@@ -8661,7 +8654,7 @@
       </c>
       <c r="N71" s="32"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>110094</v>
       </c>
@@ -8703,7 +8696,7 @@
       </c>
       <c r="N72" s="32"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>110094</v>
       </c>
@@ -8745,7 +8738,7 @@
       </c>
       <c r="N73" s="32"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>110094</v>
       </c>
@@ -8787,7 +8780,7 @@
       </c>
       <c r="N74" s="32"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>140897</v>
       </c>
@@ -8829,7 +8822,7 @@
       </c>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>140897</v>
       </c>
@@ -8871,7 +8864,7 @@
       </c>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>140897</v>
       </c>
@@ -8913,7 +8906,7 @@
       </c>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>140897</v>
       </c>
@@ -8955,7 +8948,7 @@
       </c>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>140897</v>
       </c>
@@ -8997,7 +8990,7 @@
       </c>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>141364</v>
       </c>
@@ -9039,7 +9032,7 @@
       </c>
       <c r="N80" s="32"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>141364</v>
       </c>
@@ -9081,7 +9074,7 @@
       </c>
       <c r="N81" s="32"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>141364</v>
       </c>
@@ -9123,7 +9116,7 @@
       </c>
       <c r="N82" s="32"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>141364</v>
       </c>
@@ -9165,7 +9158,7 @@
       </c>
       <c r="N83" s="32"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>141364</v>
       </c>
@@ -9207,7 +9200,7 @@
       </c>
       <c r="N84" s="32"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>141353</v>
       </c>
@@ -9249,7 +9242,7 @@
       </c>
       <c r="N85" s="7"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>141353</v>
       </c>
@@ -9291,7 +9284,7 @@
       </c>
       <c r="N86" s="7"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>141353</v>
       </c>
@@ -9333,7 +9326,7 @@
       </c>
       <c r="N87" s="7"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>141353</v>
       </c>
@@ -9375,7 +9368,7 @@
       </c>
       <c r="N88" s="7"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>141353</v>
       </c>
@@ -9417,7 +9410,7 @@
       </c>
       <c r="N89" s="7"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>141372</v>
       </c>
@@ -9459,7 +9452,7 @@
       </c>
       <c r="N90" s="12"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>141372</v>
       </c>
@@ -9501,7 +9494,7 @@
       </c>
       <c r="N91" s="12"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>141372</v>
       </c>
@@ -9543,7 +9536,7 @@
       </c>
       <c r="N92" s="12"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>141372</v>
       </c>
@@ -9585,7 +9578,7 @@
       </c>
       <c r="N93" s="12"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>141372</v>
       </c>
@@ -9627,7 +9620,7 @@
       </c>
       <c r="N94" s="12"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>140933</v>
       </c>
@@ -9669,7 +9662,7 @@
       </c>
       <c r="N95" s="7"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>140933</v>
       </c>
@@ -9711,7 +9704,7 @@
       </c>
       <c r="N96" s="7"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>140933</v>
       </c>
@@ -9753,7 +9746,7 @@
       </c>
       <c r="N97" s="7"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>140933</v>
       </c>
@@ -9795,7 +9788,7 @@
       </c>
       <c r="N98" s="7"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>140933</v>
       </c>
@@ -9837,7 +9830,7 @@
       </c>
       <c r="N99" s="7"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>410162</v>
       </c>
@@ -9879,7 +9872,7 @@
       </c>
       <c r="N100" s="12"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>410162</v>
       </c>
@@ -9921,7 +9914,7 @@
       </c>
       <c r="N101" s="12"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>410162</v>
       </c>
@@ -9963,7 +9956,7 @@
       </c>
       <c r="N102" s="12"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>410162</v>
       </c>
@@ -10005,7 +9998,7 @@
       </c>
       <c r="N103" s="12"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>410162</v>
       </c>
@@ -10047,7 +10040,7 @@
       </c>
       <c r="N104" s="12"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>410283</v>
       </c>
@@ -10089,7 +10082,7 @@
       </c>
       <c r="N105" s="7"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>410283</v>
       </c>
@@ -10131,7 +10124,7 @@
       </c>
       <c r="N106" s="7"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>410283</v>
       </c>
@@ -10173,7 +10166,7 @@
       </c>
       <c r="N107" s="7"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>410283</v>
       </c>
@@ -10215,7 +10208,7 @@
       </c>
       <c r="N108" s="7"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>410283</v>
       </c>
@@ -10257,7 +10250,7 @@
       </c>
       <c r="N109" s="7"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>410273</v>
       </c>
@@ -10299,7 +10292,7 @@
       </c>
       <c r="N110" s="13"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>410273</v>
       </c>
@@ -10341,7 +10334,7 @@
       </c>
       <c r="N111" s="13"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>410273</v>
       </c>
@@ -10383,7 +10376,7 @@
       </c>
       <c r="N112" s="13"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>410273</v>
       </c>
@@ -10425,7 +10418,7 @@
       </c>
       <c r="N113" s="13"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>410273</v>
       </c>
@@ -10467,7 +10460,7 @@
       </c>
       <c r="N114" s="13"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>410296</v>
       </c>
@@ -10509,7 +10502,7 @@
       </c>
       <c r="N115" s="7"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>410296</v>
       </c>
@@ -10551,7 +10544,7 @@
       </c>
       <c r="N116" s="7"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>410296</v>
       </c>
@@ -10593,7 +10586,7 @@
       </c>
       <c r="N117" s="7"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>410296</v>
       </c>
@@ -10635,7 +10628,7 @@
       </c>
       <c r="N118" s="7"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>410296</v>
       </c>
@@ -10677,7 +10670,7 @@
       </c>
       <c r="N119" s="7"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>410143</v>
       </c>
@@ -10719,7 +10712,7 @@
       </c>
       <c r="N120" s="32"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>410143</v>
       </c>
@@ -10761,7 +10754,7 @@
       </c>
       <c r="N121" s="32"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>410143</v>
       </c>
@@ -10803,7 +10796,7 @@
       </c>
       <c r="N122" s="32"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>410143</v>
       </c>
@@ -10845,7 +10838,7 @@
       </c>
       <c r="N123" s="32"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>410143</v>
       </c>
@@ -10887,7 +10880,7 @@
       </c>
       <c r="N124" s="32"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>320580</v>
       </c>
@@ -10929,7 +10922,7 @@
       </c>
       <c r="N125" s="7"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>320580</v>
       </c>
@@ -10971,7 +10964,7 @@
       </c>
       <c r="N126" s="7"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>320580</v>
       </c>
@@ -11013,7 +11006,7 @@
       </c>
       <c r="N127" s="7"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>320580</v>
       </c>
@@ -11055,7 +11048,7 @@
       </c>
       <c r="N128" s="7"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>320580</v>
       </c>
@@ -11097,7 +11090,7 @@
       </c>
       <c r="N129" s="7"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>272894</v>
       </c>
@@ -11139,7 +11132,7 @@
       </c>
       <c r="N130" s="13"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>272894</v>
       </c>
@@ -11181,7 +11174,7 @@
       </c>
       <c r="N131" s="13"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>272894</v>
       </c>
@@ -11223,7 +11216,7 @@
       </c>
       <c r="N132" s="13"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>272894</v>
       </c>
@@ -11265,7 +11258,7 @@
       </c>
       <c r="N133" s="13"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>272894</v>
       </c>
@@ -11307,7 +11300,7 @@
       </c>
       <c r="N134" s="13"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>320602</v>
       </c>
@@ -11349,7 +11342,7 @@
       </c>
       <c r="N135" s="7"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>320602</v>
       </c>
@@ -11391,7 +11384,7 @@
       </c>
       <c r="N136" s="7"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>320602</v>
       </c>
@@ -11433,7 +11426,7 @@
       </c>
       <c r="N137" s="7"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>320602</v>
       </c>
@@ -11475,7 +11468,7 @@
       </c>
       <c r="N138" s="7"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>320602</v>
       </c>
@@ -11517,7 +11510,7 @@
       </c>
       <c r="N139" s="7"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>320575</v>
       </c>
@@ -11559,7 +11552,7 @@
       </c>
       <c r="N140" s="13"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>320575</v>
       </c>
@@ -11601,7 +11594,7 @@
       </c>
       <c r="N141" s="13"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>320575</v>
       </c>
@@ -11643,7 +11636,7 @@
       </c>
       <c r="N142" s="13"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>320575</v>
       </c>
@@ -11685,7 +11678,7 @@
       </c>
       <c r="N143" s="13"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>320575</v>
       </c>
@@ -11727,7 +11720,7 @@
       </c>
       <c r="N144" s="13"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>272850</v>
       </c>
@@ -11769,7 +11762,7 @@
       </c>
       <c r="N145" s="7"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>272850</v>
       </c>
@@ -11811,7 +11804,7 @@
       </c>
       <c r="N146" s="7"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>272850</v>
       </c>
@@ -11853,7 +11846,7 @@
       </c>
       <c r="N147" s="7"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>272850</v>
       </c>
@@ -11895,7 +11888,7 @@
       </c>
       <c r="N148" s="7"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>272850</v>
       </c>
@@ -11943,7 +11936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI152"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -11952,32 +11945,32 @@
       <selection pane="topRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" customWidth="1"/>
-    <col min="14" max="14" width="9.26953125" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" customWidth="1"/>
-    <col min="20" max="21" width="13.7265625" customWidth="1"/>
-    <col min="22" max="22" width="13.1796875" customWidth="1"/>
-    <col min="23" max="23" width="13.1796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" customWidth="1"/>
+    <col min="20" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="2" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="28" max="28" width="14.81640625" customWidth="1"/>
-    <col min="31" max="31" width="12.7265625" customWidth="1"/>
-    <col min="35" max="35" width="14.1796875" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" customWidth="1"/>
+    <col min="35" max="35" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12082,7 +12075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -12198,7 +12191,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -12314,7 +12307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -12430,7 +12423,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -12546,7 +12539,7 @@
         <v>84.158415841584159</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -12662,7 +12655,7 @@
         <v>70.297029702970292</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -12777,7 +12770,7 @@
         <v>66.336633663366328</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -12892,7 +12885,7 @@
         <v>95.999999999999986</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -13007,7 +13000,7 @@
         <v>55.609756097560975</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -13122,7 +13115,7 @@
         <v>66.336633663366328</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -13237,7 +13230,7 @@
         <v>91.176470588235304</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -13353,7 +13346,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>5</v>
       </c>
@@ -13469,7 +13462,7 @@
         <v>27.751196172248804</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>5</v>
       </c>
@@ -13585,7 +13578,7 @@
         <v>53.201970443349751</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
@@ -13701,7 +13694,7 @@
         <v>34.95145631067961</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -13817,7 +13810,7 @@
         <v>17.999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -13932,7 +13925,7 @@
         <v>161.57635467980293</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -14045,7 +14038,7 @@
         <v>78.606965174129357</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -14160,7 +14153,7 @@
         <v>128.15533980582526</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -14275,7 +14268,7 @@
         <v>50.505050505050505</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -14390,7 +14383,7 @@
         <v>133.00970873786409</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
@@ -14506,7 +14499,7 @@
         <v>67.661691542288565</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>5</v>
       </c>
@@ -14622,7 +14615,7 @@
         <v>95.999999999999986</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>5</v>
       </c>
@@ -14738,7 +14731,7 @@
         <v>35.406698564593306</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>5</v>
       </c>
@@ -14854,7 +14847,7 @@
         <v>41.176470588235297</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>5</v>
       </c>
@@ -14970,7 +14963,7 @@
         <v>112.07729468599034</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -15085,7 +15078,7 @@
         <v>120.19704433497536</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -15200,7 +15193,7 @@
         <v>75.000000000000014</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -15315,7 +15308,7 @@
         <v>197.07317073170734</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -15430,7 +15423,7 @@
         <v>40.394088669950733</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -15545,7 +15538,7 @@
         <v>61.083743842364527</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>7</v>
       </c>
@@ -15661,7 +15654,7 @@
         <v>183.33333333333337</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>7</v>
       </c>
@@ -15777,7 +15770,7 @@
         <v>85.4368932038835</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
@@ -15893,7 +15886,7 @@
         <v>197.029702970297</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>7</v>
       </c>
@@ -16009,7 +16002,7 @@
         <v>311.5384615384616</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>7</v>
       </c>
@@ -16125,7 +16118,7 @@
         <v>131.65829145728645</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -16240,7 +16233,7 @@
         <v>123.38308457711443</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -16355,7 +16348,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -16470,7 +16463,7 @@
         <v>151.92307692307693</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -16585,7 +16578,7 @@
         <v>187.12871287128709</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -16700,7 +16693,7 @@
         <v>157.63546798029554</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>7</v>
       </c>
@@ -16816,7 +16809,7 @@
         <v>200.99009900990094</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>7</v>
       </c>
@@ -16932,7 +16925,7 @@
         <v>340.59405940594058</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>7</v>
       </c>
@@ -17048,7 +17041,7 @@
         <v>155.7788944723618</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>7</v>
       </c>
@@ -17164,7 +17157,7 @@
         <v>151.9607843137255</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>7</v>
       </c>
@@ -17280,7 +17273,7 @@
         <v>197.08737864077668</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -17395,7 +17388,7 @@
         <v>160.19417475728156</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -17510,7 +17503,7 @@
         <v>124.27184466019419</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -17625,7 +17618,7 @@
         <v>105.94059405940594</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -17740,7 +17733,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -17855,7 +17848,7 @@
         <v>111.76470588235293</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>8</v>
       </c>
@@ -17971,7 +17964,7 @@
         <v>59.61538461538462</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>8</v>
       </c>
@@ -18087,7 +18080,7 @@
         <v>155.33980582524273</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>8</v>
       </c>
@@ -18203,7 +18196,7 @@
         <v>320.19230769230768</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>8</v>
       </c>
@@ -18319,7 +18312,7 @@
         <v>160.39603960396042</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>8</v>
       </c>
@@ -18435,7 +18428,7 @@
         <v>186.06965174129354</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>8</v>
       </c>
@@ -18552,7 +18545,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
@@ -18669,7 +18662,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>8</v>
       </c>
@@ -18784,7 +18777,7 @@
         <v>490.54726368159197</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>8</v>
       </c>
@@ -18899,7 +18892,7 @@
         <v>323.15270935960586</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>8</v>
       </c>
@@ -19014,7 +19007,7 @@
         <v>416.34615384615381</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>8</v>
       </c>
@@ -19130,7 +19123,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>8</v>
       </c>
@@ -19246,7 +19239,7 @@
         <v>437.99999999999994</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>8</v>
       </c>
@@ -19362,7 +19355,7 @@
         <v>228.99999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>8</v>
       </c>
@@ -19480,7 +19473,7 @@
         <v>338.99999999999994</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>8</v>
       </c>
@@ -19598,7 +19591,7 @@
         <v>275.62189054726366</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
@@ -19713,7 +19706,7 @@
         <v>263.05418719211821</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>8</v>
       </c>
@@ -19828,7 +19821,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>8</v>
       </c>
@@ -19943,7 +19936,7 @@
         <v>436.36363636363632</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -20058,7 +20051,7 @@
         <v>262.37623762376234</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -20173,7 +20166,7 @@
         <v>310.14492753623193</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>8</v>
       </c>
@@ -20289,7 +20282,7 @@
         <v>402.95566502463049</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>8</v>
       </c>
@@ -20405,7 +20398,7 @@
         <v>434.65346534653463</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>8</v>
       </c>
@@ -20521,7 +20514,7 @@
         <v>133.65853658536588</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>8</v>
       </c>
@@ -20639,7 +20632,7 @@
         <v>186.13861386138609</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>8</v>
       </c>
@@ -20755,7 +20748,7 @@
         <v>196.24413145539904</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>9</v>
       </c>
@@ -20872,7 +20865,7 @@
         <v>137.62376237623761</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
@@ -20987,7 +20980,7 @@
         <v>210.89108910891085</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>9</v>
       </c>
@@ -21104,7 +21097,7 @@
         <v>817.30769230769238</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>9</v>
       </c>
@@ -21221,7 +21214,7 @@
         <v>537.31343283582089</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>9</v>
       </c>
@@ -21336,7 +21329,7 @@
         <v>314.28571428571428</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>9</v>
       </c>
@@ -21452,7 +21445,7 @@
         <v>133.99014778325125</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>9</v>
       </c>
@@ -21568,7 +21561,7 @@
         <v>87.128712871287135</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>9</v>
       </c>
@@ -21684,7 +21677,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>9</v>
       </c>
@@ -21800,7 +21793,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>9</v>
       </c>
@@ -21916,7 +21909,7 @@
         <v>290.1960784313726</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>9</v>
       </c>
@@ -22032,7 +22025,7 @@
         <v>168.4729064039409</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>9</v>
       </c>
@@ -22147,7 +22140,7 @@
         <v>508.99999999999994</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>9</v>
       </c>
@@ -22264,7 +22257,7 @@
         <v>726.3681592039801</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>9</v>
       </c>
@@ -22379,7 +22372,7 @@
         <v>226.99999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>9</v>
       </c>
@@ -22494,7 +22487,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>9</v>
       </c>
@@ -22609,7 +22602,7 @@
         <v>188.99999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>9</v>
       </c>
@@ -22725,7 +22718,7 @@
         <v>225.7425742574257</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>9</v>
       </c>
@@ -22841,7 +22834,7 @@
         <v>228.8557213930348</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>9</v>
       </c>
@@ -22959,7 +22952,7 @@
         <v>150.73891625615764</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>9</v>
       </c>
@@ -23075,7 +23068,7 @@
         <v>110.14492753623188</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>9</v>
       </c>
@@ -23191,7 +23184,7 @@
         <v>141.99999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>9</v>
       </c>
@@ -23308,7 +23301,7 @@
         <v>210.57692307692307</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>9</v>
       </c>
@@ -23423,7 +23416,7 @@
         <v>331.99999999999994</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>9</v>
       </c>
@@ -23538,7 +23531,7 @@
         <v>340.38461538461536</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>9</v>
       </c>
@@ -23653,7 +23646,7 @@
         <v>267.31707317073176</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>9</v>
       </c>
@@ -23768,7 +23761,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>9</v>
       </c>
@@ -23884,7 +23877,7 @@
         <v>317.64705882352951</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>9</v>
       </c>
@@ -24000,7 +23993,7 @@
         <v>177.22772277227719</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>9</v>
       </c>
@@ -24116,7 +24109,7 @@
         <v>382.99999999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>9</v>
       </c>
@@ -24232,7 +24225,7 @@
         <v>409.85221674876846</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>9</v>
       </c>
@@ -24348,7 +24341,7 @@
         <v>292.07920792079204</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>10</v>
       </c>
@@ -24463,7 +24456,7 @@
         <v>256.1576354679803</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>10</v>
       </c>
@@ -24578,7 +24571,7 @@
         <v>477.61194029850742</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>10</v>
       </c>
@@ -24693,7 +24686,7 @@
         <v>328.37209302325579</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>10</v>
       </c>
@@ -24808,7 +24801,7 @@
         <v>239.60396039603958</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>10</v>
       </c>
@@ -24923,7 +24916,7 @@
         <v>302.99999999999994</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>10</v>
       </c>
@@ -25039,7 +25032,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>10</v>
       </c>
@@ -25155,7 +25148,7 @@
         <v>507.92079207920784</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>10</v>
       </c>
@@ -25271,7 +25264,7 @@
         <v>491.17647058823525</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>10</v>
       </c>
@@ -25387,7 +25380,7 @@
         <v>309.95260663507111</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>10</v>
       </c>
@@ -25505,7 +25498,7 @@
         <v>1432.8358208955224</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>10</v>
       </c>
@@ -25620,7 +25613,7 @@
         <v>322.38805970149258</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>10</v>
       </c>
@@ -25737,7 +25730,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>10</v>
       </c>
@@ -25856,7 +25849,7 @@
         <v>1343.2835820895521</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>10</v>
       </c>
@@ -25971,7 +25964,7 @@
         <v>317.64705882352951</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>10</v>
       </c>
@@ -26086,7 +26079,7 @@
         <v>347.78325123152706</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>10</v>
       </c>
@@ -26202,7 +26195,7 @@
         <v>269.19431279620852</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>10</v>
       </c>
@@ -26318,7 +26311,7 @@
         <v>407.88177339901472</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>10</v>
       </c>
@@ -26434,7 +26427,7 @@
         <v>492.15686274509801</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>10</v>
       </c>
@@ -26550,7 +26543,7 @@
         <v>437.7358490566038</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>10</v>
       </c>
@@ -26668,7 +26661,7 @@
         <v>961.90476190476193</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>11</v>
       </c>
@@ -26783,7 +26776,7 @@
         <v>131.68316831683168</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>11</v>
       </c>
@@ -26898,7 +26891,7 @@
         <v>133.00492610837438</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>11</v>
       </c>
@@ -27013,7 +27006,7 @@
         <v>142.42424242424241</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>11</v>
       </c>
@@ -27128,7 +27121,7 @@
         <v>112.31527093596057</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>11</v>
       </c>
@@ -27243,7 +27236,7 @@
         <v>179.1044776119403</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>11</v>
       </c>
@@ -27359,7 +27352,7 @@
         <v>71.219512195121951</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>11</v>
       </c>
@@ -27475,7 +27468,7 @@
         <v>157.7889447236181</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>11</v>
       </c>
@@ -27591,7 +27584,7 @@
         <v>79.227053140096615</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>11</v>
       </c>
@@ -27707,7 +27700,7 @@
         <v>66.009852216748769</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>11</v>
       </c>
@@ -27825,7 +27818,7 @@
         <v>65.671641791044777</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>11</v>
       </c>
@@ -27940,7 +27933,7 @@
         <v>120.97560975609757</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>11</v>
       </c>
@@ -28055,7 +28048,7 @@
         <v>120.99999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>11</v>
       </c>
@@ -28170,7 +28163,7 @@
         <v>111.42857142857143</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>11</v>
       </c>
@@ -28285,7 +28278,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>11</v>
       </c>
@@ -28400,7 +28393,7 @@
         <v>70.873786407766985</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>11</v>
       </c>
@@ -28516,7 +28509,7 @@
         <v>146.79802955665025</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>11</v>
       </c>
@@ -28632,7 +28625,7 @@
         <v>114.5631067961165</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>11</v>
       </c>
@@ -28750,7 +28743,7 @@
         <v>206.89655172413791</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>11</v>
       </c>
@@ -28866,7 +28859,7 @@
         <v>163.36633663366337</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>11</v>
       </c>
@@ -28982,7 +28975,7 @@
         <v>159.40594059405942</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>11</v>
       </c>
@@ -29097,7 +29090,7 @@
         <v>61.306532663316574</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>11</v>
       </c>
@@ -29212,7 +29205,7 @@
         <v>71.568627450980401</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>11</v>
       </c>
@@ -29327,7 +29320,7 @@
         <v>80.597014925373145</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>11</v>
       </c>
@@ -29442,7 +29435,7 @@
         <v>71.641791044776113</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>11</v>
       </c>
@@ -29564,22 +29557,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -29590,7 +29583,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -29601,7 +29594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -29612,7 +29605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -29623,7 +29616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -29634,7 +29627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -29645,7 +29638,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7.5</v>
       </c>
@@ -29656,7 +29649,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -29667,7 +29660,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -29675,7 +29668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -29683,7 +29676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -29697,7 +29690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -29711,7 +29704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -29725,7 +29718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -29739,7 +29732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -29753,7 +29746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -29767,7 +29760,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -29781,7 +29774,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -29792,7 +29785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
@@ -29812,7 +29805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>0.2</v>
       </c>
@@ -29835,7 +29828,7 @@
         <v>1.6221524355763792</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>0.2</v>
       </c>
@@ -29858,7 +29851,7 @@
         <v>1.0162876645932628</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>0.19800000000000001</v>
       </c>
@@ -29881,7 +29874,7 @@
         <v>1.2182425882543018</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -29904,7 +29897,7 @@
         <v>2.6319270538815736</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -29927,7 +29920,7 @@
         <v>1.7231298974068987</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -29950,7 +29943,7 @@
         <v>1.9250848210679374</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>0.2</v>
       </c>
@@ -29973,7 +29966,7 @@
         <v>2.4299721302205346</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>0.20499999999999999</v>
       </c>
@@ -29996,7 +29989,7 @@
         <v>2.0260622828984571</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -30019,7 +30012,7 @@
         <v>2.0260622828984571</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>0.20399999999999999</v>
       </c>
@@ -30042,7 +30035,7 @@
         <v>1.4201975119153405</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>0.2</v>
       </c>
@@ -30065,7 +30058,7 @@
         <v>2.1270397447289762</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>0.20899999999999999</v>
       </c>
@@ -30088,7 +30081,7 @@
         <v>2.0260622828984571</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -30111,7 +30104,7 @@
         <v>2.1270397447289762</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>0.20599999999999999</v>
       </c>
@@ -30134,7 +30127,7 @@
         <v>1.8241073592374182</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>0.2</v>
       </c>
@@ -30157,7 +30150,7 @@
         <v>1.8241073592374182</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -30180,7 +30173,7 @@
         <v>2.2280172065594956</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -30203,7 +30196,7 @@
         <v>2.2280172065594956</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>0.20599999999999999</v>
       </c>
@@ -30226,7 +30219,7 @@
         <v>2.2280172065594956</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>0.19800000000000001</v>
       </c>
@@ -30249,7 +30242,7 @@
         <v>1.9250848210679374</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>0.20599999999999999</v>
       </c>
@@ -30272,7 +30265,7 @@
         <v>2.0260622828984571</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -30295,7 +30288,7 @@
         <v>2.6319270538815736</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>0.2</v>
       </c>
@@ -30318,7 +30311,7 @@
         <v>2.5309495920510541</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>0.20899999999999999</v>
       </c>
@@ -30341,7 +30334,7 @@
         <v>2.732904515712093</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>0.20399999999999999</v>
       </c>
@@ -30364,7 +30357,7 @@
         <v>2.934859439373132</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>0.20699999999999999</v>
       </c>
@@ -30387,7 +30380,7 @@
         <v>2.4299721302205346</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -30410,7 +30403,7 @@
         <v>2.6319270538815736</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -30433,7 +30426,7 @@
         <v>2.732904515712093</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>0.20499999999999999</v>
       </c>
@@ -30456,7 +30449,7 @@
         <v>3.6417016721867683</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -30479,7 +30472,7 @@
         <v>2.3497715258489382</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -30502,7 +30495,7 @@
         <v>1.9017829943553446</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>0.20399999999999999</v>
       </c>
@@ -30525,7 +30518,7 @@
         <v>1.8121852880566258</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>0.20599999999999999</v>
       </c>
@@ -30548,7 +30541,7 @@
         <v>1.364196756563032</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -30571,7 +30564,7 @@
         <v>1.6329898754591883</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -30594,7 +30587,7 @@
         <v>2.6907979659690984</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>0.19900000000000001</v>
       </c>
@@ -30617,7 +30610,7 @@
         <v>2.8863778603559553</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -30640,7 +30633,7 @@
         <v>2.6907979659690984</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>0.2</v>
       </c>
@@ -30663,7 +30656,7 @@
         <v>2.2018482300019557</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -30686,7 +30679,7 @@
         <v>3.179747701936241</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -30709,7 +30702,7 @@
         <v>2.6907979659690984</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -30732,7 +30725,7 @@
         <v>3.179747701936241</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -30755,7 +30748,7 @@
         <v>2.2018482300019557</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -30778,7 +30771,7 @@
         <v>2.8863778603559553</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>0.19900000000000001</v>
       </c>
@@ -30801,7 +30794,7 @@
         <v>2.2018482300019557</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>0.20399999999999999</v>
       </c>
@@ -30824,7 +30817,7 @@
         <v>2.0062683356150988</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>0.20599999999999999</v>
       </c>
@@ -30847,7 +30840,7 @@
         <v>1.9084783884216703</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>0.20599999999999999</v>
       </c>
@@ -30870,7 +30863,7 @@
         <v>2.0062683356150988</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>0.20599999999999999</v>
       </c>
@@ -30893,7 +30886,7 @@
         <v>1.9084783884216703</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -30916,7 +30909,7 @@
         <v>2.1040582828085275</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>0</v>
       </c>
@@ -30939,7 +30932,7 @@
         <v>5.0469391746528453E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>0.20399999999999999</v>
       </c>
@@ -30962,7 +30955,7 @@
         <v>2.1040582828085275</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -30985,7 +30978,7 @@
         <v>5.5267064345785251</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>0.20599999999999999</v>
       </c>
@@ -31008,7 +31001,7 @@
         <v>4.4510170154508115</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -31031,7 +31024,7 @@
         <v>7.8736651672208087</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -31054,7 +31047,7 @@
         <v>6.6023958537062377</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -31077,7 +31070,7 @@
         <v>7.0913455896733808</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>0.2</v>
       </c>
@@ -31100,7 +31093,7 @@
         <v>4.0598572266770976</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>0.2</v>
       </c>
@@ -31123,7 +31116,7 @@
         <v>5.3311265401916677</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -31146,7 +31139,7 @@
         <v>3.375327596323098</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -31169,7 +31162,7 @@
         <v>5.0377566986113829</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -31192,7 +31185,7 @@
         <v>4.3532270682573833</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>0</v>
       </c>
@@ -31215,7 +31208,7 @@
         <v>5.0469391746528453E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>0.2</v>
       </c>
@@ -31238,7 +31231,7 @@
         <v>13.545482104439662</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>0.2</v>
       </c>
@@ -31261,7 +31254,7 @@
         <v>4.9399667514179537</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>0.2</v>
       </c>
@@ -31284,7 +31277,7 @@
         <v>4.9399667514179537</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -31307,7 +31300,7 @@
         <v>5.1355466458048111</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -31330,7 +31323,7 @@
         <v>3.2775376491296693</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>0.21</v>
       </c>
@@ -31353,7 +31346,7 @@
         <v>4.9399667514179537</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>0.20899999999999999</v>
       </c>
@@ -31376,7 +31369,7 @@
         <v>5.3311265401916677</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -31399,7 +31392,7 @@
         <v>3.4731175435165262</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>0.20699999999999999</v>
       </c>
@@ -31422,7 +31415,7 @@
         <v>4.5488069626442398</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -31445,7 +31438,7 @@
         <v>7.1891355368668091</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -31468,7 +31461,7 @@
         <v>5.7222863289653816</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>0.20499999999999999</v>
       </c>
@@ -31491,7 +31484,7 @@
         <v>7.1891355368668091</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -31514,7 +31507,7 @@
         <v>6.5046059065128095</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>0.21299999999999999</v>
       </c>
@@ -31537,7 +31530,7 @@
         <v>3.7664873850968119</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -31560,7 +31553,7 @@
         <v>2.6907979659690984</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -31583,7 +31576,7 @@
         <v>2.0062683356150988</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -31606,7 +31599,7 @@
         <v>2.3974281243888127</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -31629,7 +31622,7 @@
         <v>2.2996381771953844</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -31652,7 +31645,7 @@
         <v>2.984167807549384</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -31675,7 +31668,7 @@
         <v>2.4952180715822414</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -31698,7 +31691,7 @@
         <v>2.3974281243888127</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>0</v>
       </c>
@@ -31721,7 +31714,7 @@
         <v>5.0469391746528453E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>0.2</v>
       </c>
@@ -31744,7 +31737,7 @@
         <v>2.1040582828085275</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>0.20399999999999999</v>
       </c>
@@ -31767,7 +31760,7 @@
         <v>2.6907979659690984</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -31790,7 +31783,7 @@
         <v>2.984167807549384</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>0.2</v>
       </c>
@@ -31813,7 +31806,7 @@
         <v>3.0819577547428123</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -31836,7 +31829,7 @@
         <v>3.7664873850968119</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>0.2</v>
       </c>
@@ -31859,7 +31852,7 @@
         <v>2.2996381771953844</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>0.2</v>
       </c>
@@ -31882,7 +31875,7 @@
         <v>2.3974281243888127</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>0.2</v>
       </c>
@@ -31905,7 +31898,7 @@
         <v>2.2996381771953844</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -31928,7 +31921,7 @@
         <v>2.7885879131625266</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -31951,7 +31944,7 @@
         <v>2.984167807549384</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -31974,7 +31967,7 @@
         <v>2.0062683356150988</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>0.20699999999999999</v>
       </c>
@@ -31997,7 +31990,7 @@
         <v>3.8642773322902402</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>0.2</v>
       </c>
@@ -32020,7 +32013,7 @@
         <v>2.0062683356150988</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -32043,7 +32036,7 @@
         <v>1.6151085468413848</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>0.2</v>
       </c>
@@ -32066,7 +32059,7 @@
         <v>2.984167807549384</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>0.20799999999999999</v>
       </c>
@@ -32089,7 +32082,7 @@
         <v>2.7885879131625266</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>0.20499999999999999</v>
       </c>
@@ -32112,7 +32105,7 @@
         <v>1.8106884412282418</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>0.2</v>
       </c>
@@ -32135,7 +32128,7 @@
         <v>2.1040582828085275</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>0.20399999999999999</v>
       </c>
@@ -32158,7 +32151,7 @@
         <v>1.5173185996479561</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -32181,7 +32174,7 @@
         <v>1.8106884412282418</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>0.2</v>
       </c>
@@ -32204,7 +32197,7 @@
         <v>2.4952180715822414</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -32227,7 +32220,7 @@
         <v>2.4952180715822414</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -32250,7 +32243,7 @@
         <v>2.1040582828085275</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -32273,7 +32266,7 @@
         <v>1.6151085468413848</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -32296,7 +32289,7 @@
         <v>2.0062683356150988</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>0.215</v>
       </c>
@@ -32319,7 +32312,7 @@
         <v>1.9084783884216703</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -32342,7 +32335,7 @@
         <v>2.2996381771953844</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>0.2</v>
       </c>
@@ -32365,7 +32358,7 @@
         <v>1.7128984940348133</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>0.2</v>
       </c>
@@ -32388,7 +32381,7 @@
         <v>2.8863778603559553</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -32411,7 +32404,7 @@
         <v>3.0819577547428123</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>0.20399999999999999</v>
       </c>
@@ -32434,7 +32427,7 @@
         <v>2.3974281243888127</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>0.21099999999999999</v>
       </c>
@@ -32457,7 +32450,7 @@
         <v>3.6686974379033832</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -32480,7 +32473,7 @@
         <v>2.4952180715822414</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -32503,7 +32496,7 @@
         <v>1.9084783884216703</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>0.2</v>
       </c>
@@ -32526,7 +32519,7 @@
         <v>2.6907979659690984</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -32549,7 +32542,7 @@
         <v>3.2775376491296693</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>0.20399999999999999</v>
       </c>
@@ -32572,7 +32565,7 @@
         <v>2.2996381771953844</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -32595,7 +32588,7 @@
         <v>2.5930080187756697</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <v>0.21099999999999999</v>
       </c>
@@ -32618,7 +32611,7 @@
         <v>2.0062683356150988</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -32641,7 +32634,7 @@
         <v>3.0819577547428123</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <v>0.20399999999999999</v>
       </c>
@@ -32664,7 +32657,7 @@
         <v>2.4952180715822414</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="11">
         <v>0.21199999999999999</v>
       </c>
@@ -32687,7 +32680,7 @@
         <v>2.2018482300019557</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="11">
         <v>0.21</v>
       </c>
@@ -32710,7 +32703,7 @@
         <v>2.984167807549384</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -32733,7 +32726,7 @@
         <v>1.2239487580676705</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -32756,7 +32749,7 @@
         <v>0.73499902210052803</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
         <v>0.19800000000000001</v>
       </c>
@@ -32779,7 +32772,7 @@
         <v>1.0283688636808135</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -32802,7 +32795,7 @@
         <v>1.6151085468413848</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -32825,7 +32818,7 @@
         <v>1.3217387052610989</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <v>0.20499999999999999</v>
       </c>
@@ -32848,7 +32841,7 @@
         <v>1.2239487580676705</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
         <v>0.19900000000000001</v>
       </c>
@@ -32871,7 +32864,7 @@
         <v>1.0283688636808135</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
         <v>0.20699999999999999</v>
       </c>
@@ -32894,7 +32887,7 @@
         <v>0.83278896929395652</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -32917,7 +32910,7 @@
         <v>0.930578916487385</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -32940,7 +32933,7 @@
         <v>1.5173185996479561</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
         <v>0.20499999999999999</v>
       </c>
@@ -32963,7 +32956,7 @@
         <v>1.0283688636808135</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
         <v>0.2</v>
       </c>
@@ -32986,7 +32979,7 @@
         <v>0.63720907490709944</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
         <v>0.21</v>
       </c>
@@ -33009,7 +33002,7 @@
         <v>0.73499902210052803</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
         <v>0.2</v>
       </c>
@@ -33032,7 +33025,7 @@
         <v>1.0283688636808135</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
         <v>0.20599999999999999</v>
       </c>
@@ -33055,7 +33048,7 @@
         <v>0.63720907490709944</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -33078,7 +33071,7 @@
         <v>1.126158810874242</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <v>0.20599999999999999</v>
       </c>
@@ -33101,7 +33094,7 @@
         <v>1.9084783884216703</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
         <v>0.20300000000000001</v>
       </c>
@@ -33124,7 +33117,7 @@
         <v>1.9084783884216703</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -33147,7 +33140,7 @@
         <v>3.375327596323098</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
         <v>0.20200000000000001</v>
       </c>
@@ -33170,7 +33163,7 @@
         <v>1.8106884412282418</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
         <v>0.19900000000000001</v>
       </c>
@@ -33193,7 +33186,7 @@
         <v>1.126158810874242</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <v>0.20399999999999999</v>
       </c>
@@ -33216,7 +33209,7 @@
         <v>2.1040582828085275</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -33239,7 +33232,7 @@
         <v>1.0283688636808135</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
         <v>0.20100000000000001</v>
       </c>
@@ -33262,7 +33255,7 @@
         <v>1.2239487580676705</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
         <v>0.20300000000000001</v>
       </c>
